--- a/biology/Histoire de la zoologie et de la botanique/Charles_Morley_Wenyon/Charles_Morley_Wenyon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Morley_Wenyon/Charles_Morley_Wenyon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Morley Wenyon (né le 24 mars 1878 à Liverpool ; décédé le 24 octobre 1948 à Londres)[1],[2] est un protistologue britannique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Morley Wenyon (né le 24 mars 1878 à Liverpool ; décédé le 24 octobre 1948 à Londres), est un protistologue britannique.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses travaux sur les pathologies exotiques causées par des micro-organismes lui ont valu d'être nommé officier de la Légion d'honneur en 1933, puis membre de la Société belge de médecine tropicale en 1934.
 Il devient membre d'honneur de l'Académie des sciences de New York en 1945 et de la Royal Society of Medicine en 1947.
